--- a/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.553201153271273</v>
+        <v>1.522221278158827</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4067046829971619</v>
+        <v>-0.6030555345348423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.393693332588986</v>
+        <v>2.4834846889703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.322098537093519</v>
+        <v>6.442343473604691</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.717277792623592</v>
+        <v>2.291446026833569</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.491240225656276</v>
+        <v>4.50870511473806</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.8572275451945</v>
+        <v>5.020764065387339</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.972925024144731</v>
+        <v>2.137935048570848</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.631447262666785</v>
+        <v>4.21195267919595</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.000304049861896</v>
+        <v>8.96098313987293</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.883530652005232</v>
+        <v>6.571936377610371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.890818864713925</v>
+        <v>10.02561211031715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.57223815728925</v>
+        <v>15.7964424136955</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.45758850881367</v>
+        <v>10.74782502911832</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.40139828282954</v>
+        <v>10.59148733051292</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.10949784155321</v>
+        <v>10.85058895514322</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.323501801102005</v>
+        <v>7.215939388557849</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.003864392566626</v>
+        <v>9.144140388127569</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2391695125454472</v>
+        <v>0.2504355186241082</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2638124613712603</v>
+        <v>-0.2099944593228285</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4127780305272973</v>
+        <v>0.4917752028244093</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.439686716551829</v>
+        <v>1.239756159121197</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5369034405669617</v>
+        <v>0.4945174204548234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8804615574275286</v>
+        <v>0.9517062357818215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.152577914469655</v>
+        <v>1.270683006686813</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5101431396123385</v>
+        <v>0.5149756785963611</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.073208277039662</v>
+        <v>0.946550007887576</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.94634494304341</v>
+        <v>7.186230059439406</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.766290198796677</v>
+        <v>5.036462106828187</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7.287998525123657</v>
+        <v>8.320839041909789</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>15.49591535209516</v>
+        <v>13.70319470114719</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.882341792052793</v>
+        <v>9.318288439148274</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>8.72980560447257</v>
+        <v>11.33582479988709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.735518986675713</v>
+        <v>6.000109402394648</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.328187774901949</v>
+        <v>4.220896801014725</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.530517545336134</v>
+        <v>5.698288555656669</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.132295222457993</v>
+        <v>-3.140757177082125</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.50115368865914</v>
+        <v>-7.544011378739649</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.892374380027729</v>
+        <v>4.874720174761996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.86422187421946</v>
+        <v>-3.396155367919487</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.872920434289047</v>
+        <v>-6.637168898180882</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.764735761305275</v>
+        <v>3.903576659316522</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.288713693872917</v>
+        <v>-2.237002991945149</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.195463549241796</v>
+        <v>-6.101496392862494</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.34761789501289</v>
+        <v>5.603475653219165</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.341447492061807</v>
+        <v>4.240666265124562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.471664744016556</v>
+        <v>-1.362421639912665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.54634346509221</v>
+        <v>14.23831791289779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.77009351322864</v>
+        <v>3.710307274154609</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.8116724091345846</v>
+        <v>-0.581541450728761</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.71767116720562</v>
+        <v>10.78734605335024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.946068632907362</v>
+        <v>2.855770608027081</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.874486141895353</v>
+        <v>-1.875312976784152</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.38450005951228</v>
+        <v>11.10001125393704</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3142316800979165</v>
+        <v>-0.3328149794534164</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7726666296785918</v>
+        <v>-0.7536331375233553</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4920515513170473</v>
+        <v>0.4866769161666362</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3141097716402313</v>
+        <v>-0.3607211826871476</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7168969935317647</v>
+        <v>-0.693325279255128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3786830900996648</v>
+        <v>0.374296935112378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2551845029618883</v>
+        <v>-0.236922123852878</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6850966066733128</v>
+        <v>-0.6761529659747335</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5712475953483124</v>
+        <v>0.6171764735389184</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.745423380918945</v>
+        <v>0.6950929111460526</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2443907320037444</v>
+        <v>-0.1823362576503149</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.392906895195678</v>
+        <v>2.275659943432261</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6301929290783429</v>
+        <v>0.6320624600475128</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1303051632519902</v>
+        <v>-0.05422355677965224</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.736934471335781</v>
+        <v>1.807761688177538</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4336772671807381</v>
+        <v>0.4437583077978591</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2946793675530663</v>
+        <v>-0.2814371714500095</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.647787410159143</v>
+        <v>1.708478765283449</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.6343639716098258</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.039165099532411</v>
+        <v>8.039165099532413</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.225428452278677</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.089836141083042</v>
+        <v>2.289614922715701</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.740746520741548</v>
+        <v>-2.728962210528935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.345236967492848</v>
+        <v>6.494732323600351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.739647415802731</v>
+        <v>1.647245119803614</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.253195284582101</v>
+        <v>-2.194082842333531</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.888448138071033</v>
+        <v>4.860307782446985</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.900947035518461</v>
+        <v>2.741616084706976</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.640834387569409</v>
+        <v>-1.667718605938193</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.472121497508463</v>
+        <v>6.444692497378053</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.372350022863648</v>
+        <v>9.000421409384064</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.289664404977061</v>
+        <v>1.258193222944375</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.77386091652</v>
+        <v>14.01692658828479</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.375144110674936</v>
+        <v>8.860640017157863</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.398294601437214</v>
+        <v>3.574480845934644</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.5195984481319</v>
+        <v>11.6767333255355</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.703179341350934</v>
+        <v>7.791005011682153</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.672942275560074</v>
+        <v>1.839063833133612</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.39933220142607</v>
+        <v>11.65328756579596</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2661320120936713</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4.612023697237587</v>
+        <v>4.612023697237588</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.808520905602643</v>
@@ -1188,7 +1188,7 @@
         <v>0.2225694707850109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.820577463148828</v>
+        <v>2.820577463148829</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>2.074259869394771</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3576411446736536</v>
+        <v>0.5062074977531504</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7891678408967318</v>
+        <v>-0.8066407800946546</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.601225628616627</v>
+        <v>1.547659972561833</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3002905951973291</v>
+        <v>0.2394845160822025</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5488411824660798</v>
+        <v>-0.51903845203521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9986041947461581</v>
+        <v>0.9148440226409787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8106828424865833</v>
+        <v>0.6659225860618574</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4929085136000129</v>
+        <v>-0.5034178416923138</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.754207226776888</v>
+        <v>1.617715979860106</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.627786992699673</v>
+        <v>8.632474070918343</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.517425524187944</v>
+        <v>1.331918059684987</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>11.87003440534119</v>
+        <v>11.61800137767865</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.751680457629736</v>
+        <v>5.342000396636227</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.213302096114398</v>
+        <v>2.176558887066338</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.413625535333393</v>
+        <v>8.193543112779478</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.602656920288829</v>
+        <v>4.715569230420947</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.084598686620059</v>
+        <v>1.281451407075041</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>6.993445238144904</v>
+        <v>6.935515609770374</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>5.954328258047173</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.2770212525953566</v>
+        <v>-0.2770212525953553</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.047654088979229</v>
@@ -1306,7 +1306,7 @@
         <v>5.990855110394109</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.03806073723628</v>
+        <v>2.038060737236279</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9092574013605574</v>
+        <v>0.6527284855440462</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.871936228266903</v>
+        <v>3.193892743077177</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.25668166290342</v>
+        <v>1.305327173797121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.08564760555868</v>
+        <v>1.034301533184141</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.96111120390327</v>
+        <v>1.985977872951834</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.007703811051785</v>
+        <v>-2.86630285405832</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.763920796199427</v>
+        <v>1.678216127860908</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.276222280198251</v>
+        <v>3.358893711688754</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.08321706095069747</v>
+        <v>-0.4513309670620063</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.729383934907042</v>
+        <v>6.692494437164892</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.255438639439319</v>
+        <v>9.558151646402413</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.781915366008432</v>
+        <v>8.851024316979158</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.044164171674842</v>
+        <v>8.477312452458396</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.44364659667065</v>
+        <v>10.10718916510686</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.772090946688345</v>
+        <v>2.991464744826875</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.899126626840212</v>
+        <v>6.678504761821541</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.669319157016799</v>
+        <v>8.503578798107474</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.602735898265659</v>
+        <v>4.327429030575032</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.183120002555599</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.05504388923059891</v>
+        <v>-0.05504388923059864</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.09696029094788</v>
@@ -1411,7 +1411,7 @@
         <v>1.623589867231423</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5523376380840809</v>
+        <v>0.5523376380840805</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2315555441675256</v>
+        <v>0.07366444403752229</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.7672948199756732</v>
+        <v>0.799794199923148</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2042396356687648</v>
+        <v>0.2685550653137815</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1291001779854523</v>
+        <v>0.1455757524376155</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2276593765867563</v>
+        <v>0.2594646152138844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4514061976186546</v>
+        <v>-0.4362236930783734</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3432296832885272</v>
+        <v>0.3384896195928107</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7017960983445881</v>
+        <v>0.6808724047304583</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0248103785069068</v>
+        <v>-0.1139697229673689</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.24119419530266</v>
+        <v>4.787932206282265</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.711203559151895</v>
+        <v>6.999633967435705</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.016736847842285</v>
+        <v>6.227928548103877</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.314170611923647</v>
+        <v>2.480551039612679</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.87021352051244</v>
+        <v>2.869565602740634</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8939418179165426</v>
+        <v>0.9963421840629937</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.385709283608246</v>
+        <v>2.395175711157521</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.076583971520582</v>
+        <v>3.027757454081817</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.650918894737374</v>
+        <v>1.530581663440465</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.9903065989099471</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.285789817531464</v>
+        <v>-1.285789817531463</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.558776084735102</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9092194102243853</v>
+        <v>-1.548077894736496</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.757121414811786</v>
+        <v>-6.068109276806083</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.231531595260522</v>
+        <v>-5.768564443468823</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.9506327782846</v>
+        <v>2.894361036948031</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.41307713136486</v>
+        <v>-8.383328683066967</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.830559628605553</v>
+        <v>-6.75590295232761</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.994060261887053</v>
+        <v>3.424650681994017</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.917082636450906</v>
+        <v>-5.850268878562321</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.673841047074452</v>
+        <v>-4.812348481330015</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.35136059052255</v>
+        <v>10.83678919100368</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.300326402160422</v>
+        <v>3.879797255382026</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.502606070596733</v>
+        <v>3.393752469753469</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.40405330997989</v>
+        <v>15.87811280727678</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.772139627582433</v>
+        <v>1.952438517168045</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.442558417924601</v>
+        <v>3.346119428185834</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.04543182377467</v>
+        <v>12.06648817504573</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.738447025229612</v>
+        <v>1.637824828704344</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.651041397697612</v>
+        <v>1.896576840767559</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1213981274502032</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1576203534487934</v>
+        <v>-0.1576203534487932</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.957832866967143</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0905796625553915</v>
+        <v>-0.1772463820537067</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5511571653780151</v>
+        <v>-0.5869351241867389</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5586383118874729</v>
+        <v>-0.5322020116076408</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1931325579014526</v>
+        <v>0.1772173315683191</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6399964354045459</v>
+        <v>-0.6648574096030566</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4780504962310915</v>
+        <v>-0.4736920554082845</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2453796808234902</v>
+        <v>0.3011082611561686</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5380207060886254</v>
+        <v>-0.5146549442560917</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4038987549519945</v>
+        <v>-0.4163929866508571</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.042852333998463</v>
+        <v>1.847409992216578</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7881270322379176</v>
+        <v>0.7177797624890454</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6746613065838225</v>
+        <v>0.6584406220872161</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.388424705706108</v>
+        <v>2.337198576018864</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4787379866047944</v>
+        <v>0.2963894027258127</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5703263694425794</v>
+        <v>0.5078589902508202</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.735456226440277</v>
+        <v>1.711999619158292</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2378186717846592</v>
+        <v>0.2461751670124632</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2461639101323801</v>
+        <v>0.2661234907254569</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>7.712178130853569</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20.16112875988404</v>
+        <v>20.16112875988403</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>8.595196872090513</v>
@@ -1725,7 +1725,7 @@
         <v>6.629900143759492</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>16.77631296113899</v>
+        <v>16.77631296113898</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.89076780150917</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.234602415217835</v>
+        <v>2.533338440168011</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.838397605621596</v>
+        <v>4.881498495188734</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16.30793574111639</v>
+        <v>16.19720624737516</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.46766229460728</v>
+        <v>4.648201497614233</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.592565087344541</v>
+        <v>2.756168302724905</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>12.66982923013498</v>
+        <v>13.14651074117322</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.440107431938747</v>
+        <v>4.205226188948568</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.545531398825408</v>
+        <v>4.629892273723986</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>15.42874748409006</v>
+        <v>15.85636857333823</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.240424747719763</v>
+        <v>8.17108688421999</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.1796891908213</v>
+        <v>11.46681425391004</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24.92437461414106</v>
+        <v>25.00850365501065</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.14141010414625</v>
+        <v>13.24733856751222</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.06723615553615</v>
+        <v>11.08633740476327</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>21.07984651368214</v>
+        <v>21.49228614460974</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.788022496180865</v>
+        <v>9.795017702834045</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.897227602217153</v>
+        <v>10.33324683469864</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>21.58293609971095</v>
+        <v>21.64190111526722</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>2.550498154092641</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>6.453785775361994</v>
+        <v>6.45378577536199</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>4.128915063911175</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4617690315359044</v>
+        <v>0.9804084265192429</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1.762502623209148</v>
+        <v>2.056698401123124</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6.342065423416032</v>
+        <v>8.135327300216098</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.9336047186613571</v>
+        <v>0.9302231061895515</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4496097335737487</v>
+        <v>0.5692472532599457</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.519663462667073</v>
+        <v>2.745518944867987</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1.530512801361898</v>
+        <v>1.383890655279556</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.72994856204883</v>
+        <v>1.744848742091125</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5.56754102590897</v>
+        <v>5.544494294185991</v>
       </c>
     </row>
     <row r="39">
@@ -1888,22 +1888,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>9.345986015657155</v>
+        <v>9.529221811384581</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8.222497031956555</v>
+        <v>7.842668308181973</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>16.67705671923535</v>
+        <v>16.57646339510937</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>10.59075414749222</v>
+        <v>9.567460413382602</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>10.98482429428104</v>
+        <v>11.24445726350559</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>26.70265042274279</v>
+        <v>24.7928409557232</v>
       </c>
     </row>
     <row r="40">
@@ -1942,7 +1942,7 @@
         <v>-0.5372365098828429</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>7.16893598329318</v>
+        <v>7.168935983293183</v>
       </c>
     </row>
     <row r="41">
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.332806133173476</v>
+        <v>-1.651835574414226</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.159028136869517</v>
+        <v>-3.965420928223446</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.420258674227088</v>
+        <v>2.593680015581102</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.6579496772375599</v>
+        <v>-0.7001597332798143</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.377747568637055</v>
+        <v>-2.412328885934517</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.51084294146771</v>
+        <v>5.633808079998837</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6813943097339845</v>
+        <v>-0.3476310284028294</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.414443636419343</v>
+        <v>-2.285042200026332</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.112332871380798</v>
+        <v>5.051099128991781</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.100850187811614</v>
+        <v>4.085215245048829</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.125781722801097</v>
+        <v>0.9473869451949245</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.770644377143388</v>
+        <v>8.684300372773411</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.047471159461265</v>
+        <v>5.075123542995843</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.020391509208572</v>
+        <v>3.091678009672896</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.46419409965352</v>
+        <v>11.28993152009609</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.648344877110542</v>
+        <v>3.713517361723357</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.205765792167237</v>
+        <v>1.387933375910378</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.498964390538648</v>
+        <v>9.380695639462116</v>
       </c>
     </row>
     <row r="43">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.21205442017232</v>
+        <v>-0.2628668763082221</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5776125674231046</v>
+        <v>-0.56517852250595</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3298015667906551</v>
+        <v>0.3366919822148596</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.09659357116698251</v>
+        <v>-0.1063112444996821</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3409869317642348</v>
+        <v>-0.3473246992909718</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7634260466969585</v>
+        <v>0.7786169396484043</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09702551858960776</v>
+        <v>-0.05841637920210761</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3620890704643361</v>
+        <v>-0.3496120590396091</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7458614203542523</v>
+        <v>0.7433376853407601</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9569589826682657</v>
+        <v>0.9380464157651889</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2686372326465679</v>
+        <v>0.2276280441413182</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.046729147797877</v>
+        <v>1.944738860547414</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.148810114587375</v>
+        <v>1.187484275899345</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7294843006613499</v>
+        <v>0.7116150706695584</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.796557516483947</v>
+        <v>2.796936876879962</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7748328964346761</v>
+        <v>0.7770325861676161</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2504806221349386</v>
+        <v>0.3010223901018842</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.963599218038739</v>
+        <v>2.023939982418927</v>
       </c>
     </row>
     <row r="46">
@@ -2138,7 +2138,7 @@
         <v>0.4176638168486485</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.4687343199760725</v>
+        <v>-0.468734319976074</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-3.194771701920221</v>
@@ -2156,7 +2156,7 @@
         <v>-0.764509548701199</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.5713573593800134</v>
+        <v>-0.571357359380012</v>
       </c>
     </row>
     <row r="47">
@@ -2167,31 +2167,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.502908081621931</v>
+        <v>-2.797474391436342</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.412511744196551</v>
+        <v>-2.033907693971205</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.006117182839939</v>
+        <v>-2.799486232897328</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.934456756917733</v>
+        <v>-5.889543582158529</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.932263516051661</v>
+        <v>-4.798349667467173</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.482046277606134</v>
+        <v>-3.59352069026084</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.345900714092983</v>
+        <v>-3.576333139097954</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.670410008562193</v>
+        <v>-2.823335472267944</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.387317701033835</v>
+        <v>-2.479618417928178</v>
       </c>
     </row>
     <row r="48">
@@ -2202,31 +2202,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.663505651154618</v>
+        <v>2.62083028416469</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.251821696905571</v>
+        <v>3.044739934576712</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.061111379808171</v>
+        <v>2.143532733825066</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.459465867568245</v>
+        <v>-0.3744428367779832</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.6933346665834451</v>
+        <v>1.008981957025584</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.84256283937455</v>
+        <v>1.89307268090698</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.4968646729181727</v>
+        <v>0.3098094802946313</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.109617469901984</v>
+        <v>1.115686891541465</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.349402836988168</v>
+        <v>1.266253321325034</v>
       </c>
     </row>
     <row r="49">
@@ -2243,7 +2243,7 @@
         <v>0.06342311044176567</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.07117827148158566</v>
+        <v>-0.07117827148158587</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.3402978788981872</v>
@@ -2261,7 +2261,7 @@
         <v>-0.09528734189889505</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.07121313807287936</v>
+        <v>-0.0712131380728792</v>
       </c>
     </row>
     <row r="50">
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3321369075856072</v>
+        <v>-0.3602072546143204</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3077832353650934</v>
+        <v>-0.285380207612035</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3863942602342235</v>
+        <v>-0.3586576079018792</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5339312121174679</v>
+        <v>-0.5335749403908194</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4446870795085038</v>
+        <v>-0.4422169479034454</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3140870882890573</v>
+        <v>-0.3183392739851483</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.380791838936422</v>
+        <v>-0.4110789918480233</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2907790351528533</v>
+        <v>-0.3077459526552338</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2632992111954771</v>
+        <v>-0.272581375132466</v>
       </c>
     </row>
     <row r="51">
@@ -2307,31 +2307,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.513600468109253</v>
+        <v>0.4874076086350749</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6127477472264942</v>
+        <v>0.5707559535291524</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3869055238840581</v>
+        <v>0.4223916003660052</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.05314349795564899</v>
+        <v>-0.02420661373809763</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.09398411915780336</v>
+        <v>0.1237087153101866</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2401452344238212</v>
+        <v>0.2396460025287427</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.06373188408761114</v>
+        <v>0.04210048071478024</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1603942108180904</v>
+        <v>0.1623601552704929</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1957686875327855</v>
+        <v>0.1828871541730736</v>
       </c>
     </row>
     <row r="52">
@@ -2352,7 +2352,7 @@
         <v>0.5597803331040416</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5.867103302012763</v>
+        <v>5.867103302012761</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2.827519567254083</v>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.17125418167643</v>
+        <v>1.144271555085198</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4773013326679644</v>
+        <v>-0.5621774637988731</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4.521187330846643</v>
+        <v>4.349708458113198</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.540705512251621</v>
+        <v>1.414391370136644</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5240034444932586</v>
+        <v>-0.5450328450615542</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>3.93930472815009</v>
+        <v>3.974172009989009</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.73879676941884</v>
+        <v>1.608829869791835</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.3099793602398183</v>
+        <v>-0.2454327745967296</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.618917517361563</v>
+        <v>4.598219983769814</v>
       </c>
     </row>
     <row r="54">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.637309368051356</v>
+        <v>3.533935870864929</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.762666156099579</v>
+        <v>1.693243154369232</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.175950764117717</v>
+        <v>7.08872912709817</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.101526878409687</v>
+        <v>4.07419498560643</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.92734347019042</v>
+        <v>1.818131007438158</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.327140419868917</v>
+        <v>6.518936581249374</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.469446576674637</v>
+        <v>3.432618832876667</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.380922396480395</v>
+        <v>1.3920676380468</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.420405404161706</v>
+        <v>6.38637466693604</v>
       </c>
     </row>
     <row r="55">
@@ -2457,7 +2457,7 @@
         <v>0.1121041844760959</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>1.174973095717717</v>
+        <v>1.174973095717716</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.4516983031641092</v>
@@ -2486,31 +2486,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2206485615623022</v>
+        <v>0.2002167754615257</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.08807982264830738</v>
+        <v>-0.1062529298502686</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.8255202480162318</v>
+        <v>0.7826777460789157</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2285596707525772</v>
+        <v>0.2029591176411741</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.07854766627703191</v>
+        <v>-0.08056593172601498</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5634950769046557</v>
+        <v>0.5672029737655158</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2932100495026525</v>
+        <v>0.2625149330235474</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.05101380205654728</v>
+        <v>-0.04326472246422249</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.7595506888896018</v>
+        <v>0.7663737052363215</v>
       </c>
     </row>
     <row r="57">
@@ -2521,31 +2521,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8166675613513702</v>
+        <v>0.7808018642690328</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3949324161444021</v>
+        <v>0.3762865782160209</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.63744614734898</v>
+        <v>1.58802236910701</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7186528504884804</v>
+        <v>0.7124496840411705</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.339884613503637</v>
+        <v>0.323468274413046</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.110941858561317</v>
+        <v>1.158031847557546</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.6623164833727858</v>
+        <v>0.6544930324924161</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2623696695180111</v>
+        <v>0.2646238601302848</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.22669363641158</v>
+        <v>1.230291417184252</v>
       </c>
     </row>
     <row r="58">
